--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H2">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I2">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J2">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N2">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q2">
-        <v>29445.6922766444</v>
+        <v>153694.527989201</v>
       </c>
       <c r="R2">
-        <v>265011.2304897996</v>
+        <v>1383250.751902808</v>
       </c>
       <c r="S2">
-        <v>0.3009325902610258</v>
+        <v>0.5211346382786139</v>
       </c>
       <c r="T2">
-        <v>0.3009325902610257</v>
+        <v>0.5211346382786139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H3">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I3">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J3">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.347366</v>
       </c>
       <c r="O3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q3">
-        <v>97.27228953166934</v>
+        <v>245.5693595745127</v>
       </c>
       <c r="R3">
-        <v>875.4506057850241</v>
+        <v>2210.124236170614</v>
       </c>
       <c r="S3">
-        <v>0.0009941149209320465</v>
+        <v>0.0008326561852817979</v>
       </c>
       <c r="T3">
-        <v>0.0009941149209320463</v>
+        <v>0.0008326561852817979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H4">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I4">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J4">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N4">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q4">
-        <v>627.3298352604586</v>
+        <v>2434.477026840531</v>
       </c>
       <c r="R4">
-        <v>5645.968517344128</v>
+        <v>21910.29324156478</v>
       </c>
       <c r="S4">
-        <v>0.00641126010892572</v>
+        <v>0.008254622473412182</v>
       </c>
       <c r="T4">
-        <v>0.006411260108925719</v>
+        <v>0.008254622473412182</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H5">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I5">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J5">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N5">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q5">
-        <v>12211.75586847393</v>
+        <v>28999.98172958653</v>
       </c>
       <c r="R5">
-        <v>109905.8028162653</v>
+        <v>260999.8355662788</v>
       </c>
       <c r="S5">
-        <v>0.1248031559458357</v>
+        <v>0.09833072905364836</v>
       </c>
       <c r="T5">
-        <v>0.1248031559458357</v>
+        <v>0.09833072905364837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>485.864922</v>
       </c>
       <c r="I6">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J6">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N6">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q6">
-        <v>22018.67853713554</v>
+        <v>45524.25505552179</v>
       </c>
       <c r="R6">
-        <v>198168.1068342199</v>
+        <v>409718.2954996961</v>
       </c>
       <c r="S6">
-        <v>0.2250291113570029</v>
+        <v>0.1543598623949035</v>
       </c>
       <c r="T6">
-        <v>0.2250291113570029</v>
+        <v>0.1543598623949035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>485.864922</v>
       </c>
       <c r="I7">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J7">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.347366</v>
       </c>
       <c r="O7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q7">
         <v>72.737541832828</v>
@@ -883,10 +883,10 @@
         <v>654.637876495452</v>
       </c>
       <c r="S7">
-        <v>0.0007433717865188229</v>
+        <v>0.0002466324146230487</v>
       </c>
       <c r="T7">
-        <v>0.0007433717865188227</v>
+        <v>0.0002466324146230487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>485.864922</v>
       </c>
       <c r="I8">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J8">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N8">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q8">
-        <v>469.0999909114159</v>
+        <v>721.091079472158</v>
       </c>
       <c r="R8">
-        <v>4221.899918202744</v>
+        <v>6489.819715249421</v>
       </c>
       <c r="S8">
-        <v>0.004794163914711784</v>
+        <v>0.002445015732069929</v>
       </c>
       <c r="T8">
-        <v>0.004794163914711783</v>
+        <v>0.002445015732069929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>485.864922</v>
       </c>
       <c r="I9">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J9">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N9">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q9">
-        <v>9131.615053084701</v>
+        <v>8589.782486959659</v>
       </c>
       <c r="R9">
-        <v>82184.5354777623</v>
+        <v>77308.04238263692</v>
       </c>
       <c r="S9">
-        <v>0.09332436627312717</v>
+        <v>0.02912552091345908</v>
       </c>
       <c r="T9">
-        <v>0.09332436627312712</v>
+        <v>0.02912552091345908</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H10">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I10">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J10">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N10">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q10">
-        <v>16454.73239373196</v>
+        <v>45151.95116998171</v>
       </c>
       <c r="R10">
-        <v>148092.5915435876</v>
+        <v>406367.5605298353</v>
       </c>
       <c r="S10">
-        <v>0.1681660323953526</v>
+        <v>0.1530974853066686</v>
       </c>
       <c r="T10">
-        <v>0.1681660323953526</v>
+        <v>0.1530974853066686</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H11">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I11">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J11">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.347366</v>
       </c>
       <c r="O11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q11">
-        <v>54.35733955688934</v>
+        <v>72.142683785926</v>
       </c>
       <c r="R11">
-        <v>489.216056012004</v>
+        <v>649.284154073334</v>
       </c>
       <c r="S11">
-        <v>0.0005555276078711014</v>
+        <v>0.0002446154193717853</v>
       </c>
       <c r="T11">
-        <v>0.0005555276078711012</v>
+        <v>0.0002446154193717853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H12">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I12">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J12">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N12">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q12">
-        <v>350.5621285732986</v>
+        <v>715.193893227411</v>
       </c>
       <c r="R12">
-        <v>3155.059157159687</v>
+        <v>6436.745039046698</v>
       </c>
       <c r="S12">
-        <v>0.003582716561996337</v>
+        <v>0.0024250200428237</v>
       </c>
       <c r="T12">
-        <v>0.003582716561996337</v>
+        <v>0.0024250200428237</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H13">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I13">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J13">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N13">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q13">
-        <v>6824.12805871458</v>
+        <v>8519.534014097468</v>
       </c>
       <c r="R13">
-        <v>61417.15252843122</v>
+        <v>76675.80612687721</v>
       </c>
       <c r="S13">
-        <v>0.06974203607400975</v>
+        <v>0.02888732822713758</v>
       </c>
       <c r="T13">
-        <v>0.06974203607400974</v>
+        <v>0.02888732822713759</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H14">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I14">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J14">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N14">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O14">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P14">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q14">
-        <v>62.64877338998666</v>
+        <v>150.5942205469443</v>
       </c>
       <c r="R14">
-        <v>563.8389605098799</v>
+        <v>1355.347984922499</v>
       </c>
       <c r="S14">
-        <v>0.0006402653901222249</v>
+        <v>0.0005106223733423736</v>
       </c>
       <c r="T14">
-        <v>0.0006402653901222249</v>
+        <v>0.0005106223733423736</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H15">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I15">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J15">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.347366</v>
       </c>
       <c r="O15">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P15">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q15">
-        <v>0.2069569146733333</v>
+        <v>0.240615764134</v>
       </c>
       <c r="R15">
-        <v>1.86261223206</v>
+        <v>2.165541877206</v>
       </c>
       <c r="S15">
-        <v>2.115082906523319E-06</v>
+        <v>8.158599453515673E-07</v>
       </c>
       <c r="T15">
-        <v>2.115082906523319E-06</v>
+        <v>8.158599453515673E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H16">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I16">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J16">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N16">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O16">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P16">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q16">
-        <v>1.334709482146666</v>
+        <v>2.385369050499</v>
       </c>
       <c r="R16">
-        <v>12.01238533932</v>
+        <v>21.468321454491</v>
       </c>
       <c r="S16">
-        <v>1.364062280943327E-05</v>
+        <v>8.088111226576272E-06</v>
       </c>
       <c r="T16">
-        <v>1.364062280943327E-05</v>
+        <v>8.088111226576273E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H17">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I17">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J17">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N17">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O17">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P17">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q17">
-        <v>25.98178093115111</v>
+        <v>28.41499760323</v>
       </c>
       <c r="R17">
-        <v>233.83602838036</v>
+        <v>255.73497842907</v>
       </c>
       <c r="S17">
-        <v>0.0002655316968522245</v>
+        <v>9.634721347195527E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002655316968522245</v>
+        <v>9.634721347195529E-05</v>
       </c>
     </row>
   </sheetData>
